--- a/Team-Data/2012-13/2-10-2012-13.xlsx
+++ b/Team-Data/2012-13/2-10-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,25 +811,25 @@
         <v>0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -807,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54</v>
+        <v>0.531</v>
       </c>
       <c r="H3" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>80.59999999999999</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.339</v>
+        <v>0.335</v>
       </c>
       <c r="O3" t="n">
         <v>16.6</v>
@@ -893,76 +960,76 @@
         <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>40</v>
+        <v>39.7</v>
       </c>
       <c r="U3" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA3" t="n">
         <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
         <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -980,16 +1047,16 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.569</v>
+        <v>0.58</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,7 +1115,7 @@
         <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K4" t="n">
         <v>0.44</v>
@@ -1060,34 +1127,34 @@
         <v>21.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R4" t="n">
         <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1099,28 +1166,28 @@
         <v>18.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1138,13 +1205,13 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1159,13 +1226,13 @@
         <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1177,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1317,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
         <v>22</v>
@@ -1329,16 +1396,16 @@
         <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
         <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1490,10 +1557,10 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,10 +1569,10 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1520,25 +1587,25 @@
         <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1687,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -1702,7 +1769,7 @@
         <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
@@ -1726,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -1940,97 +2007,97 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.635</v>
+        <v>0.647</v>
       </c>
       <c r="H9" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J9" t="n">
-        <v>85.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L9" t="n">
         <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N9" t="n">
         <v>0.338</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S9" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="T9" t="n">
-        <v>45.8</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
         <v>23.9</v>
       </c>
       <c r="V9" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W9" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X9" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>105</v>
+        <v>104.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2039,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2048,7 +2115,7 @@
         <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2066,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
@@ -2078,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2215,10 +2282,10 @@
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -2266,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2275,7 +2342,7 @@
         <v>19</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2400,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>27</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -2486,58 +2553,58 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.528</v>
+        <v>0.538</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L12" t="n">
         <v>10.3</v>
       </c>
       <c r="M12" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P12" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q12" t="n">
         <v>0.755</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
         <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V12" t="n">
         <v>16.3</v>
@@ -2546,10 +2613,10 @@
         <v>8.4</v>
       </c>
       <c r="X12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z12" t="n">
         <v>20.1</v>
@@ -2558,10 +2625,10 @@
         <v>19.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2570,22 +2637,22 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2603,10 +2670,10 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2615,19 +2682,19 @@
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2776,10 +2843,10 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO13" t="n">
         <v>17</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>18</v>
       </c>
       <c r="AP13" t="n">
         <v>14</v>
@@ -2794,19 +2861,19 @@
         <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
@@ -2815,7 +2882,7 @@
         <v>12</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J14" t="n">
         <v>80.8</v>
@@ -2874,22 +2941,22 @@
         <v>0.47</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O14" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P14" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.705</v>
+        <v>0.706</v>
       </c>
       <c r="R14" t="n">
         <v>11.6</v>
@@ -2901,7 +2968,7 @@
         <v>41.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
         <v>14.7</v>
@@ -2916,16 +2983,16 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2934,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>4</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>14</v>
@@ -2976,13 +3043,13 @@
         <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="n">
-        <v>0.462</v>
+        <v>0.471</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.456</v>
@@ -3059,10 +3126,10 @@
         <v>8.6</v>
       </c>
       <c r="M15" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
@@ -3071,19 +3138,19 @@
         <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.694</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3092,7 +3159,7 @@
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
@@ -3104,19 +3171,19 @@
         <v>22.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
         <v>18</v>
@@ -3128,19 +3195,19 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3161,13 +3228,13 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW15" t="n">
         <v>25</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.64</v>
+        <v>0.633</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3244,34 +3311,34 @@
         <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O16" t="n">
         <v>16.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.791</v>
       </c>
       <c r="R16" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V16" t="n">
         <v>14.7</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X16" t="n">
         <v>5.1</v>
@@ -3280,40 +3347,40 @@
         <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
         <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
         <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3331,31 +3398,31 @@
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -3396,52 +3463,52 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.708</v>
+        <v>0.702</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J17" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.492</v>
+        <v>0.491</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R17" t="n">
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T17" t="n">
         <v>38.9</v>
@@ -3450,10 +3517,10 @@
         <v>22.3</v>
       </c>
       <c r="V17" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>5</v>
@@ -3462,16 +3529,16 @@
         <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
         <v>3</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM17" t="n">
         <v>9</v>
@@ -3507,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3525,22 +3592,22 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3680,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3698,22 +3765,22 @@
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
         <v>16</v>
       </c>
       <c r="AT18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW18" t="n">
         <v>6</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.375</v>
+        <v>0.383</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,10 +3845,10 @@
         <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3790,31 +3857,31 @@
         <v>18.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.298</v>
+        <v>0.299</v>
       </c>
       <c r="O19" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P19" t="n">
         <v>25.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R19" t="n">
         <v>13</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T19" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>7.9</v>
@@ -3832,16 +3899,16 @@
         <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-2</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3856,10 +3923,10 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3880,25 +3947,25 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -3942,34 +4009,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J20" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N20" t="n">
         <v>0.373</v>
@@ -3978,61 +4045,61 @@
         <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>14.7</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4047,22 +4114,22 @@
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="n">
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
         <v>22</v>
@@ -4071,19 +4138,19 @@
         <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
         <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.653</v>
+        <v>0.667</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.447</v>
       </c>
       <c r="L21" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="O21" t="n">
         <v>15.6</v>
       </c>
       <c r="P21" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T21" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U21" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="W21" t="n">
         <v>8</v>
@@ -4187,22 +4254,22 @@
         <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z21" t="n">
         <v>18.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>6</v>
@@ -4217,10 +4284,10 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>16</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4241,10 +4308,10 @@
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR21" t="n">
         <v>19</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>21</v>
@@ -4253,13 +4320,13 @@
         <v>23</v>
       </c>
       <c r="AU21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.765</v>
+        <v>0.76</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.481</v>
+        <v>0.482</v>
       </c>
       <c r="L22" t="n">
         <v>7.7</v>
@@ -4336,7 +4403,7 @@
         <v>19.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O22" t="n">
         <v>22.3</v>
@@ -4345,16 +4412,16 @@
         <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.829</v>
+        <v>0.831</v>
       </c>
       <c r="R22" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U22" t="n">
         <v>22.1</v>
@@ -4363,28 +4430,28 @@
         <v>15.5</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X22" t="n">
         <v>7.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA22" t="n">
         <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.4</v>
+        <v>106.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4435,13 +4502,13 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
         <v>36</v>
       </c>
       <c r="G23" t="n">
-        <v>0.294</v>
+        <v>0.28</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.344</v>
@@ -4527,22 +4594,22 @@
         <v>15.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.775</v>
+        <v>0.779</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
         <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -4554,19 +4621,19 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA23" t="n">
         <v>16.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.40000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4575,25 +4642,25 @@
         <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN23" t="n">
         <v>24</v>
@@ -4614,13 +4681,13 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4632,16 +4699,16 @@
         <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4763,22 +4830,22 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4808,7 +4875,7 @@
         <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
         <v>7</v>
@@ -4817,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -4852,85 +4919,85 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J25" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.446</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O25" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P25" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U25" t="n">
         <v>21.8</v>
       </c>
       <c r="V25" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W25" t="n">
         <v>7.7</v>
       </c>
       <c r="X25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.3</v>
+        <v>-4.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
@@ -4945,67 +5012,67 @@
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
       </c>
       <c r="AO25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS25" t="n">
         <v>26</v>
       </c>
-      <c r="AP25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS25" t="n">
+      <c r="AT25" t="n">
         <v>25</v>
       </c>
-      <c r="AT25" t="n">
-        <v>24</v>
-      </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>18</v>
       </c>
-      <c r="AZ25" t="n">
+      <c r="BA25" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB25" t="n">
         <v>20</v>
       </c>
-      <c r="BA25" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>21</v>
-      </c>
       <c r="BC25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
         <v>82.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L26" t="n">
         <v>8.199999999999999</v>
@@ -5064,34 +5131,34 @@
         <v>24</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O26" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P26" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R26" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S26" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U26" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V26" t="n">
         <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
@@ -5100,19 +5167,19 @@
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5127,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -5136,7 +5203,7 @@
         <v>20</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
@@ -5148,7 +5215,7 @@
         <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
         <v>9</v>
@@ -5157,13 +5224,13 @@
         <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>20</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
         <v>33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.365</v>
+        <v>0.353</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K27" t="n">
         <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
         <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="O27" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T27" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
         <v>8.4</v>
@@ -5288,13 +5355,13 @@
         <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.7</v>
+        <v>96.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.6</v>
+        <v>-6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
@@ -5315,25 +5382,25 @@
         <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5342,7 +5409,7 @@
         <v>30</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
@@ -5351,13 +5418,13 @@
         <v>19</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
         <v>25</v>
@@ -5366,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="n">
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.486</v>
       </c>
       <c r="L28" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.385</v>
+        <v>0.38</v>
       </c>
       <c r="O28" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
         <v>20.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R28" t="n">
         <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U28" t="n">
         <v>25.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
         <v>4.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
         <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,25 +5555,25 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>19</v>
@@ -5515,7 +5582,7 @@
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,16 +5591,16 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX28" t="n">
         <v>14</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.373</v>
+        <v>0.36</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
         <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O29" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P29" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.772</v>
@@ -5640,7 +5707,7 @@
         <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
         <v>5.2</v>
@@ -5652,13 +5719,13 @@
         <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5670,16 +5737,16 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5688,10 +5755,10 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>16</v>
@@ -5700,13 +5767,13 @@
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT29" t="n">
         <v>27</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>28</v>
       </c>
       <c r="AU29" t="n">
         <v>12</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5849,7 +5916,7 @@
         <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>13</v>
@@ -5858,10 +5925,10 @@
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5876,10 +5943,10 @@
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5888,13 +5955,13 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-4.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6040,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6058,19 +6125,19 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
@@ -6088,7 +6155,7 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-10-2012-13</t>
+          <t>2013-02-10</t>
         </is>
       </c>
     </row>
